--- a/data/trans_bre/P40_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P40_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,37</t>
+          <t>12,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>-11,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>59,22%</t>
+          <t>-6,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>406,03%</t>
+          <t>60,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>345,01%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>84,2%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-54,86%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 23,23</t>
+          <t>-19,23; 13,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 19,43</t>
+          <t>-9,62; 21,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 16,08</t>
+          <t>-1,08; 24,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 16,1</t>
+          <t>-11,22; 21,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,51; 474,34</t>
+          <t>-31,38; 4,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,17; 464,75</t>
+          <t>-75,0; 228,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>-72,06; 771,29</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-50,77; 599,7</t>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-69,6; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-88,94; 75,03</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,83</t>
+          <t>10,34</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,45</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,85</t>
+          <t>22,14</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>11,55</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,85%</t>
+          <t>-17,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,53%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>423,22%</t>
+          <t>55,99%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>364,21%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>182,24%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 22,41</t>
+          <t>-35,69; 18,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 25,72</t>
+          <t>-21,87; 30,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 22,22</t>
+          <t>-6,5; 23,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,64; 36,19</t>
+          <t>7,98; 37,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,06; 145,31</t>
+          <t>-1,97; 25,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,01; 181,95</t>
+          <t>-66,08; 134,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 240,26</t>
+          <t>-53,78; 261,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,83; 1591,35</t>
+          <t>-34,5; 426,36</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22,85; 2189,77</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-28,87; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>13,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,1%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>-20,63%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18,29%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>214,25%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 13,99</t>
+          <t>-9,53; 15,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 11,0</t>
+          <t>-8,8; 16,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 9,08</t>
+          <t>-14,81; 7,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 11,69</t>
+          <t>-11,36; 12,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 109,28</t>
+          <t>3,01; 24,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,97; 90,15</t>
+          <t>-44,02; 192,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,01; 154,5</t>
+          <t>-43,58; 227,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-49,64; 174,65</t>
+          <t>-65,34; 116,22</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-50,45; 230,22</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 1328,57</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>10,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,01</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,04</t>
+          <t>12,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,6</t>
+          <t>13,53</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>88,91%</t>
+          <t>14,04</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>146,42%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>276,44%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>195,34%</t>
+          <t>325,09%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>359,84%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>269,67%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 18,93</t>
+          <t>-0,48; 20,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 20,19</t>
+          <t>-0,65; 18,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 17,71</t>
+          <t>4,37; 20,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 17,82</t>
+          <t>5,3; 22,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,34; 239,43</t>
+          <t>4,71; 23,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,4; 439,0</t>
+          <t>-5,46; 309,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,42; 1204,84</t>
+          <t>-13,07; 383,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,03; 669,41</t>
+          <t>11,17; 1533,09</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>30,23; 1645,67</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>29,07; 1265,61</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,83%</t>
+          <t>15,87</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>29,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>188,5%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 9,63</t>
+          <t>-11,61; 22,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 10,48</t>
+          <t>-14,3; 22,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 11,59</t>
+          <t>-20,88; 14,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 12,57</t>
+          <t>-18,1; 16,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-52,59; 71,36</t>
+          <t>2,28; 30,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-53,0; 82,95</t>
+          <t>-42,1; 156,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-57,03; 134,47</t>
+          <t>-46,3; 160,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-50,51; 149,62</t>
+          <t>-76,87; 145,63</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-69,78; 175,68</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 693,33</t>
         </is>
       </c>
     </row>
@@ -1120,12 +1236,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1140,20 +1256,30 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1168,12 +1294,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,98</t>
+          <t>0,0; 12,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,36</t>
+          <t>0,0; 11,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1202,6 +1328,16 @@
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>59,8%</t>
+          <t>38,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>46,88%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>95,67%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>96,58%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 8,84</t>
+          <t>-6,96; 9,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 9,13</t>
+          <t>-4,26; 11,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 8,18</t>
+          <t>-1,28; 9,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 10,8</t>
+          <t>2,22; 13,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 69,61</t>
+          <t>2,58; 11,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 79,78</t>
+          <t>-30,37; 70,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 127,06</t>
+          <t>-23,26; 113,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,21; 184,0</t>
+          <t>-12,29; 141,5</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15,8; 221,15</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>22,85; 247,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
